--- a/RUDN/Importance/Varible_muatal_class_in_Northern Europe.xlsx
+++ b/RUDN/Importance/Varible_muatal_class_in_Northern Europe.xlsx
@@ -16,243 +16,243 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="450">
   <si>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
+    <t>Age population, age 25, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population, male</t>
+  </si>
+  <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
+    <t>Urban population (% of total)</t>
+  </si>
+  <si>
+    <t>Population, total</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Age population, age 25, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 24, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population, female</t>
+  </si>
+  <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 23, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 23, female, interpolated</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Female population 25-29</t>
+  </si>
+  <si>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
+    <t>Male population 05-09</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Female population 05-09</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (current US$)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (constant 2015 US$)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (% of GNI)</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>Male population 50-54</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, female</t>
+  </si>
+  <si>
+    <t>Country_code</t>
+  </si>
+  <si>
+    <t>Female population 00-04</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, total</t>
+  </si>
+  <si>
+    <t>Male population 30-34</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male</t>
+  </si>
+  <si>
+    <t>Male population 25-29</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, total</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>Male population 00-04</t>
+  </si>
+  <si>
+    <t>Female population 20-24</t>
+  </si>
+  <si>
+    <t>Age population, age 03, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 06, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 05, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 03, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 02, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 01, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 01, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 0, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
     <t>Survival to age 65, male (% of cohort)</t>
   </si>
   <si>
-    <t>Population ages 15-64, male</t>
-  </si>
-  <si>
-    <t>Death rate, crude (per 1,000 people)</t>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
   </si>
   <si>
     <t>Rural population (% of total population)</t>
   </si>
   <si>
-    <t>Male population 50-54</t>
-  </si>
-  <si>
-    <t>Male population 30-34</t>
-  </si>
-  <si>
-    <t>Male population 25-29</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, total</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female</t>
-  </si>
-  <si>
-    <t>Population, female</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, total</t>
-  </si>
-  <si>
-    <t>Male population 05-09</t>
-  </si>
-  <si>
-    <t>Male population 00-04</t>
-  </si>
-  <si>
-    <t>Female population 00-04</t>
-  </si>
-  <si>
-    <t>Female population 05-09</t>
-  </si>
-  <si>
-    <t>Female population 20-24</t>
-  </si>
-  <si>
-    <t>Country_code</t>
-  </si>
-  <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
-    <t>Female population 30-34</t>
-  </si>
-  <si>
-    <t>Age population, age 25, male, interpolated</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>Urban population (% of total)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Age population, age 25, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population, male</t>
-  </si>
-  <si>
-    <t>Age population, age 24, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 24, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 23, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 23, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population, total</t>
-  </si>
-  <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Female population 25-29</t>
-  </si>
-  <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 02, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 0, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 0, female, interpolated</t>
-  </si>
-  <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, male</t>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Age population, age 06, male, interpolated</t>
   </si>
   <si>
     <t>PPP conversion factor, GDP (LCU per international $)</t>
   </si>
   <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, female</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (% of GNI)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (constant 2015 US$)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (current US$)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Age population, age 01, female, interpolated</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kt)</t>
-  </si>
-  <si>
-    <t>Age population, age 02, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 05, male, interpolated</t>
-  </si>
-  <si>
-    <t>Forest area (sq. km)</t>
+    <t>Age population, age 07, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 08, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 07, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 06, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 06, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 05, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 04, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 03, female, interpolated</t>
+    <t>Age population, age 08, female, interpolated</t>
   </si>
   <si>
     <t>Labor force, total</t>
   </si>
   <si>
-    <t>Age population, age 08, female, interpolated</t>
-  </si>
-  <si>
     <t>Male population 35-39</t>
   </si>
   <si>
     <t>Female population 35-39</t>
   </si>
   <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Urban population</t>
+  </si>
+  <si>
     <t>Age population, age 09, male, interpolated</t>
   </si>
   <si>
-    <t>Urban population</t>
-  </si>
-  <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
     <t>Employment in services, female (% of female employment)</t>
   </si>
   <si>
     <t>Male population 55-59</t>
   </si>
   <si>
+    <t>Male population 40-44</t>
+  </si>
+  <si>
     <t>Age population, age 09, female, interpolated</t>
   </si>
   <si>
-    <t>Male population 40-44</t>
-  </si>
-  <si>
     <t>GDP per person employed (constant 2011 PPP $)</t>
   </si>
   <si>
@@ -268,12 +268,12 @@
     <t>Age population, age 22, female, interpolated</t>
   </si>
   <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
     <t>GNI per capita, PPP (current international $)</t>
   </si>
   <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
     <t>Age population, age 22, male, interpolated</t>
   </si>
   <si>
@@ -328,27 +328,27 @@
     <t>Female population 10-14</t>
   </si>
   <si>
+    <t>Female population 40-44</t>
+  </si>
+  <si>
+    <t>Age population, age 19, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
     <t>Immunization, BCG (% of one-year-old children)</t>
   </si>
   <si>
-    <t>Female population 40-44</t>
-  </si>
-  <si>
-    <t>Age population, age 19, female, interpolated</t>
+    <t>Population ages 65 and above, male</t>
+  </si>
+  <si>
+    <t>Forest area (% of land area)</t>
   </si>
   <si>
     <t>Improved water source (% of population with access)</t>
   </si>
   <si>
-    <t>Age population, age 20, male, interpolated</t>
-  </si>
-  <si>
-    <t>Forest area (% of land area)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male</t>
-  </si>
-  <si>
     <t>Age population, age 15, male, interpolated</t>
   </si>
   <si>
@@ -373,33 +373,33 @@
     <t>Health expenditure, total (% of GDP)</t>
   </si>
   <si>
+    <t>Male population 80+</t>
+  </si>
+  <si>
+    <t>Age population, age 17, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 16, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (current US$)</t>
+  </si>
+  <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Age population, age 16, female, interpolated</t>
+  </si>
+  <si>
     <t>People using safely managed sanitation services, rural (% of rural population)</t>
   </si>
   <si>
-    <t>Male population 80+</t>
-  </si>
-  <si>
-    <t>Age population, age 17, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 16, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 65-69</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (current US$)</t>
-  </si>
-  <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Age population, age 16, female, interpolated</t>
-  </si>
-  <si>
     <t>Male population 15-19</t>
   </si>
   <si>
@@ -433,21 +433,24 @@
     <t>Mortality rate, adult, female (per 1,000 female adults)</t>
   </si>
   <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Male population 70-74</t>
+  </si>
+  <si>
+    <t>Female population 45-49</t>
+  </si>
+  <si>
     <t>Fertility rate, total (births per woman)</t>
   </si>
   <si>
-    <t>Male population 70-74</t>
-  </si>
-  <si>
-    <t>Female population 45-49</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
     <t>Population ages 65 and above, female</t>
   </si>
   <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
     <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
   </si>
   <si>
@@ -457,33 +460,33 @@
     <t>People using basic sanitation services, rural (% of rural population)</t>
   </si>
   <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Male population 75-79</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
     <t>Primary education, teachers (% female)</t>
   </si>
   <si>
-    <t>Survival to age 65, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Male population 75-79</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Female population 60-64</t>
   </si>
   <si>
@@ -496,15 +499,18 @@
     <t>Tuberculosis death rate (per 100,000 people)</t>
   </si>
   <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
     <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
   </si>
   <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
     <t>Improved sanitation facilities, urban (% of urban population with access)</t>
   </si>
   <si>
+    <t>Income share held by lowest 20%</t>
+  </si>
+  <si>
     <t>Female population 80+</t>
   </si>
   <si>
@@ -520,12 +526,6 @@
     <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
   </si>
   <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
-    <t>Income share held by lowest 20%</t>
-  </si>
-  <si>
     <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
   </si>
   <si>
@@ -547,6 +547,9 @@
     <t>Female population 75-79</t>
   </si>
   <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
     <t>CO2 emissions (metric tons per capita)</t>
   </si>
   <si>
@@ -559,811 +562,808 @@
     <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
   </si>
   <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Hospital beds (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Total bilateral ODA commitments (current US$)</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Female population 70-74</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Age at first marriage, female</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>GINI index (World Bank estimate)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
+    <t>Employment in agriculture, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Bilateral ODA commitments that is untied (current US$)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
+  </si>
+  <si>
+    <t>Bilateral ODA commitments that is untied (% of bilateral ODA commitments)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Female population 65-69</t>
+  </si>
+  <si>
+    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
+  </si>
+  <si>
     <t>Total bilateral sector allocable ODA commitments (current US$)</t>
   </si>
   <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at $1.90 a day (2011 PPP) (% of population)</t>
-  </si>
-  <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Public spending on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Tertiary education, academic staff (% female)</t>
-  </si>
-  <si>
-    <t>Bilateral ODA commitments that is untied (current US$)</t>
-  </si>
-  <si>
-    <t>Secondary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>Female population 70-74</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Total bilateral ODA commitments (current US$)</t>
-  </si>
-  <si>
-    <t>Age at first marriage, female</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>GINI index (World Bank estimate)</t>
-  </si>
-  <si>
     <t>Tuberculosis case detection rate (%, all forms)</t>
   </si>
   <si>
-    <t>Bilateral ODA commitments that is untied (% of bilateral ODA commitments)</t>
-  </si>
-  <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Hospital beds (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Employment in agriculture, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Tuberculosis case detection rate (all forms)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (%)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Female population 65-69</t>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
   </si>
   <si>
     <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
   </si>
   <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Poverty gap at $1.90 a day (2011 PPP) (%)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, male (% of total)</t>
+  </si>
+  <si>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
   </si>
   <si>
     <t>Prevalence of overweight, female (% of female adults)</t>
   </si>
   <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, female (% of female working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Persistence to grade 5, male (% of cohort)</t>
   </si>
   <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Labor force with basic education, male (% of male working-age population with basic education)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, male (% of total)</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
+    <t>Contributing family workers, total (% of total employment)</t>
   </si>
   <si>
     <t>Population ages 65 and above, female (% of total)</t>
   </si>
   <si>
-    <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
     <t>Trade (% of GDP)</t>
   </si>
   <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Number of neonatal deaths</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) living with HIV</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% net)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
     <t>Time required to start a business, male (days)</t>
   </si>
   <si>
-    <t>Contributing family workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>Number of neonatal deaths</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, female (% of employment)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Access to anti-retroviral drugs, female (%)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, male (%)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
   </si>
   <si>
     <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
   </si>
   <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, total (% of total employment)</t>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty line (% of population)</t>
   </si>
   <si>
     <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
   </si>
   <si>
-    <t>Access to anti-retroviral drugs, female (%)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Birth rate, crude (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% net)</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>Age at first marriage, male</t>
   </si>
   <si>
     <t>Women's share of population ages 15+ living with HIV (%)</t>
   </si>
   <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, female (% of employment)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
+    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
   </si>
   <si>
     <t>Educational attainment, completed upper secondary, population 25+ years, female (%)</t>
   </si>
   <si>
-    <t>School enrollment, primary, female (% net)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, male (%)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64 (% of total)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Age at first marriage, male</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services (% of population)</t>
-  </si>
-  <si>
     <t>Population ages 65-69, male (% of male population)</t>
   </si>
   <si>
-    <t>Number of infant deaths</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
     <t>Self-employed, female (% of female employment)</t>
   </si>
   <si>
     <t>Health expenditure, private (% of GDP)</t>
   </si>
   <si>
+    <t>Nurses and midwives (per 1,000 people)</t>
+  </si>
+  <si>
     <t>Employers, male (% of male employment)</t>
   </si>
   <si>
+    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
     <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
   </si>
   <si>
+    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Number of under-five deaths</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
     <t>Start-up procedures to register a business, female (number)</t>
   </si>
   <si>
-    <t>Population ages 05-09, male (% of male population)</t>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
   </si>
   <si>
     <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Tuberculosis treatment success rate (% of new cases)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, female (% of female working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
+    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, male (%)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 25-29, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, female (% of female employment)</t>
   </si>
   <si>
     <t>Poverty headcount ratio at national poverty lines (% of population)</t>
   </si>
   <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Number of under-five deaths</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, male (number)</t>
+    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Progression to secondary school, female (%)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Self-employed, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
   </si>
   <si>
     <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
   </si>
   <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, female (%)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, male</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Self-employed, total (% of total employment)</t>
   </si>
   <si>
     <t>Prevalence of HIV, total (% of population ages 15-49)</t>
   </si>
   <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Nurses and midwives (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, male (%)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Number of maternal deaths</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Progression to secondary school, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% net)</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, female (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Physicians (per 1,000 people)</t>
   </si>
   <si>
     <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
   </si>
   <si>
-    <t>Population ages 35-39, female (% of female population)</t>
+    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, male (% of employment)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% net)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>Female share of employment in senior and middle management (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
+  </si>
+  <si>
+    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
   </si>
   <si>
     <t>Educational attainment, at least completed primary, population 25+ years, male (%) (cumulative)</t>
   </si>
   <si>
-    <t>Self-employed, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (% gross)</t>
   </si>
   <si>
     <t>Agricultural support estimate (% of GDP)</t>
   </si>
   <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Poverty headcount ratio at national poverty line (% of population)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, female (%)</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
-  </si>
-  <si>
-    <t>Self-employed, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages10-14, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, female (% of female working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
-    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
-  </si>
-  <si>
-    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, total (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, male (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Physicians (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, male (% of employment)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
   </si>
   <si>
     <t>AIDS estimated deaths (UNAIDS estimates)</t>
   </si>
   <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Female share of employment in senior and middle management (%)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% net)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
-  </si>
-  <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Educational attainment, no schooling, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, female (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
-    <t>Labor force with advanced education, male (% of male working-age population with advanced education)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above (% of total)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary (% gross)</t>
-  </si>
-  <si>
-    <t>Educational attainment, some primary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>School enrollment, tertiary, male (% gross)</t>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation (% of population)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
+    <t>Population ages 75-79, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Own-account workers, male (% of males employed)</t>
   </si>
   <si>
     <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
-    <t>Educational attainment, no schooling, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Children orphaned by HIV/AIDS</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
   </si>
   <si>
     <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% net)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
+    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Region_code</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Children (0-14) living with HIV</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
   </si>
   <si>
     <t>Sex ratio at birth (male births per female births)</t>
   </si>
   <si>
-    <t>Own-account workers, male (% of males employed)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
-  </si>
-  <si>
-    <t>Children orphaned by HIV/AIDS</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Labor force with intermediate education, male (% of male working-age population with intermediate education)</t>
-  </si>
-  <si>
-    <t>Antiretroviral therapy coverage for PMTCT (% of pregnant women living with HIV)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Reion_sub_code</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
   </si>
 </sst>
 </file>
@@ -2313,7 +2313,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.6341138212124543</v>
+        <v>0.635823222921856</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -2569,7 +2569,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.616852283182493</v>
+        <v>0.6157988028974358</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -2577,7 +2577,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.6157988028974358</v>
+        <v>0.6123799994786324</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -2585,7 +2585,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.6123799994786324</v>
+        <v>0.6112064816384479</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2593,7 +2593,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.6122511160164157</v>
+        <v>0.6111542774844871</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2601,7 +2601,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.6112064816384479</v>
+        <v>0.6097281404165171</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2617,7 +2617,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.6097281404165171</v>
+        <v>0.6094021131674129</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2689,7 +2689,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.5961953768837535</v>
+        <v>0.5960694581680911</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2697,7 +2697,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.5960694581680911</v>
+        <v>0.5959168330154662</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2705,7 +2705,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.5959168330154662</v>
+        <v>0.5949498987151985</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2713,7 +2713,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.5949498987151985</v>
+        <v>0.5931500331709891</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2721,7 +2721,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.5931500331709891</v>
+        <v>0.5929728634048297</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2729,7 +2729,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.5929728634048297</v>
+        <v>0.5928955884573748</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2737,7 +2737,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.5928955884573748</v>
+        <v>0.5925968988459249</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2745,7 +2745,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.5925968988459249</v>
+        <v>0.5925282462935461</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2753,7 +2753,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.5925282462935461</v>
+        <v>0.5902124709008476</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2849,7 +2849,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.5563428267747932</v>
+        <v>0.5554663918231846</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2873,7 +2873,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.5526077806516785</v>
+        <v>0.5498440786093786</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2889,7 +2889,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.5420876050837882</v>
+        <v>0.5466936440486874</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2897,7 +2897,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.5416880826449484</v>
+        <v>0.5420876050837882</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2905,7 +2905,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.5410696993511839</v>
+        <v>0.5416880826449484</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2913,7 +2913,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.5405545234617146</v>
+        <v>0.5410696993511839</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2945,7 +2945,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.5319907543457978</v>
+        <v>0.5304923503644658</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2961,7 +2961,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.5304923503644658</v>
+        <v>0.5247691535344532</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2969,7 +2969,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.5247691535344532</v>
+        <v>0.5230705435025098</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2977,7 +2977,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.5230705435025098</v>
+        <v>0.5221737310313606</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2985,7 +2985,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.5213612603829703</v>
+        <v>0.522036004943196</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2993,7 +2993,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.520343024108324</v>
+        <v>0.5213612603829703</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -3001,7 +3001,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.5150901573169955</v>
+        <v>0.520343024108324</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -3009,7 +3009,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.5120786353120084</v>
+        <v>0.5150901573169955</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -3017,7 +3017,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.5102581774491404</v>
+        <v>0.5065859254075338</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -3025,7 +3025,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.5073261075202646</v>
+        <v>0.50634850850345</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -3033,7 +3033,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.506010039903545</v>
+        <v>0.5045822416808747</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -3041,7 +3041,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.5024482645468977</v>
+        <v>0.5034318488638152</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -3049,7 +3049,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.5021068443336825</v>
+        <v>0.5027266898253231</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -3057,7 +3057,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.5000243589178637</v>
+        <v>0.5024482645468977</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -3065,7 +3065,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.4970968258621256</v>
+        <v>0.5021068443336825</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -3073,7 +3073,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.4964984095585812</v>
+        <v>0.5000243589178637</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -3081,7 +3081,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.4962963917283583</v>
+        <v>0.4970968258621256</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -3089,7 +3089,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.4954178543113594</v>
+        <v>0.4964984095585812</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -3153,7 +3153,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.4625827718028124</v>
+        <v>0.46261032823361</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -3161,7 +3161,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.4605453194388243</v>
+        <v>0.4625827718028124</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -3169,7 +3169,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.4595727130552074</v>
+        <v>0.4605453194388243</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -3177,7 +3177,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.45906657890125</v>
+        <v>0.4595727130552074</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -3185,7 +3185,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.4585224239464138</v>
+        <v>0.4584967783314493</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -3217,7 +3217,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.4363637224811103</v>
+        <v>0.4378147736313558</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -3225,7 +3225,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.4340851912344956</v>
+        <v>0.4374938196431239</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -3249,7 +3249,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.4313497287047721</v>
+        <v>0.4291160050196394</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -3257,7 +3257,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.4273125704177378</v>
+        <v>0.427582679763421</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -3265,7 +3265,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.4231868419330354</v>
+        <v>0.4214440962828658</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -3273,7 +3273,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.4221609592595925</v>
+        <v>0.4204515575501906</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -3281,7 +3281,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.4202571481797928</v>
+        <v>0.4148631015580126</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -3289,7 +3289,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.4195612762488987</v>
+        <v>0.4113204702139752</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -3297,7 +3297,7 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.4148455666074131</v>
+        <v>0.4055494297909041</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -3305,7 +3305,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.4125554004295151</v>
+        <v>0.4049041420027755</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -3313,7 +3313,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.4113204702139752</v>
+        <v>0.4047621889843702</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -3321,7 +3321,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.4112474354889097</v>
+        <v>0.4016987054640051</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -3329,7 +3329,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.4049041420027755</v>
+        <v>0.3995722138947293</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -3337,7 +3337,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.400564745601846</v>
+        <v>0.3973812869151825</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -3345,7 +3345,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.3955099251145175</v>
+        <v>0.393588510815349</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -3353,7 +3353,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.3882973996746308</v>
+        <v>0.3934450390068251</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -3361,7 +3361,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.3878330348799788</v>
+        <v>0.391029647557317</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -3369,7 +3369,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.3851781573652824</v>
+        <v>0.3882973996746308</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -3377,7 +3377,7 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.3846626160297257</v>
+        <v>0.3861236331705766</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -3385,7 +3385,7 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.3846334801952669</v>
+        <v>0.3833841747417985</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -3393,7 +3393,7 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.3758396517432858</v>
+        <v>0.3767212765396075</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -3409,7 +3409,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.372064308521916</v>
+        <v>0.3743342151182494</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -3417,7 +3417,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.3720562091572006</v>
+        <v>0.3721710139542942</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -3425,7 +3425,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.3714852122692462</v>
+        <v>0.372064308521916</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -3433,7 +3433,7 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.3689838657345987</v>
+        <v>0.3698514063467213</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -3441,7 +3441,7 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.3672633876953539</v>
+        <v>0.3691919399821266</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -3449,7 +3449,7 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.3660524359187916</v>
+        <v>0.3672633876953539</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -3457,7 +3457,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.3647643435296435</v>
+        <v>0.3660524359187916</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -3465,7 +3465,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.3643437764424093</v>
+        <v>0.3647643435296435</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -3473,7 +3473,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.3620976013767165</v>
+        <v>0.3630115881319766</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -3481,7 +3481,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.3610098282305689</v>
+        <v>0.3601574840704689</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -3489,7 +3489,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.3564786671412263</v>
+        <v>0.3591385196137253</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -3497,7 +3497,7 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.3451085702251835</v>
+        <v>0.3534158966804215</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -3505,7 +3505,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.3449535403051311</v>
+        <v>0.3513062708053456</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -3513,7 +3513,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.3434041966277119</v>
+        <v>0.3460614652113805</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -3521,7 +3521,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.3431021737905506</v>
+        <v>0.345611335433831</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -3529,7 +3529,7 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.3386436583542229</v>
+        <v>0.3431021737905506</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -3537,7 +3537,7 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.3381162270280622</v>
+        <v>0.3405542943195938</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -3545,7 +3545,7 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.3376718255893132</v>
+        <v>0.3386436583542229</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -3553,7 +3553,7 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.3367574238133881</v>
+        <v>0.3376718255893132</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -3561,7 +3561,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.3360093170468537</v>
+        <v>0.3352239153705074</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -3569,7 +3569,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.334646957686757</v>
+        <v>0.3350665721652055</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -3577,7 +3577,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.3342118713105044</v>
+        <v>0.334646957686757</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -3593,7 +3593,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.3328389692162004</v>
+        <v>0.3314144677916986</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3601,7 +3601,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.3253280802950549</v>
+        <v>0.3290446680208925</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3609,7 +3609,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.3248157633889539</v>
+        <v>0.3287804995706867</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3617,7 +3617,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.3246665574153789</v>
+        <v>0.3253280802950549</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3625,7 +3625,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.324473216655353</v>
+        <v>0.3253024975476655</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3633,7 +3633,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.3220692568603114</v>
+        <v>0.3248336211389558</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3641,7 +3641,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.3204635558772311</v>
+        <v>0.3246665574153789</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3649,7 +3649,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.3200129317832738</v>
+        <v>0.3238402668591687</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3657,7 +3657,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.3172328118622265</v>
+        <v>0.3220692568603114</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3665,7 +3665,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>0.3140890113595796</v>
+        <v>0.320113249638414</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3673,7 +3673,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>0.3135714209000695</v>
+        <v>0.3199496189826414</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3681,7 +3681,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.312386166151466</v>
+        <v>0.3145562420394903</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3689,7 +3689,7 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>0.311545116463378</v>
+        <v>0.3140890113595796</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3697,7 +3697,7 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>0.3103896480448318</v>
+        <v>0.3106092393745392</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3705,7 +3705,7 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>0.3079033947192222</v>
+        <v>0.3085552238966927</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3713,7 +3713,7 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.3072102495940154</v>
+        <v>0.3079033947192222</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3721,7 +3721,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.3068351205353255</v>
+        <v>0.30789239491592</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3729,7 +3729,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.3066792093181194</v>
+        <v>0.303896104456276</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -3737,7 +3737,7 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.3034148212997609</v>
+        <v>0.303891364779133</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -3745,7 +3745,7 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.3017146564844473</v>
+        <v>0.3021621803035304</v>
       </c>
     </row>
     <row r="254" spans="1:2">
@@ -3753,7 +3753,7 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.3007576532359402</v>
+        <v>0.299290235021479</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -3761,7 +3761,7 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>0.3000624558687868</v>
+        <v>0.2982277818007739</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -3769,7 +3769,7 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>0.2989103494705216</v>
+        <v>0.2971389034853817</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -3777,7 +3777,7 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.2984864346612366</v>
+        <v>0.2941938067260748</v>
       </c>
     </row>
     <row r="258" spans="1:2">
@@ -3785,7 +3785,7 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.2950214405278295</v>
+        <v>0.2932838163029539</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -3793,7 +3793,7 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.2941938067260748</v>
+        <v>0.2891154535430831</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -3801,7 +3801,7 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.2939542775272697</v>
+        <v>0.2889780774232333</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -3809,7 +3809,7 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.2939239306625721</v>
+        <v>0.2882890910888227</v>
       </c>
     </row>
     <row r="262" spans="1:2">
@@ -3817,7 +3817,7 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>0.2932838163029539</v>
+        <v>0.2869051656704658</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -3825,7 +3825,7 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.2928755538509036</v>
+        <v>0.2848464303528189</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -3833,7 +3833,7 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.2889780774232333</v>
+        <v>0.2847751020019407</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -3841,7 +3841,7 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>0.2872284516560812</v>
+        <v>0.2843927207118115</v>
       </c>
     </row>
     <row r="266" spans="1:2">
@@ -3849,7 +3849,7 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.2869051656704658</v>
+        <v>0.2816742402799781</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -3857,7 +3857,7 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.2866046124049204</v>
+        <v>0.2808477852541109</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -3865,7 +3865,7 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.2847751020019407</v>
+        <v>0.2789815312401682</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -3873,7 +3873,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.2829426100839147</v>
+        <v>0.2787492074290725</v>
       </c>
     </row>
     <row r="270" spans="1:2">
@@ -3881,7 +3881,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>0.2825820591749557</v>
+        <v>0.2778951441177753</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -3889,7 +3889,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>0.2823746770271012</v>
+        <v>0.2767549054347704</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -3897,7 +3897,7 @@
         <v>270</v>
       </c>
       <c r="B272">
-        <v>0.2808477852541109</v>
+        <v>0.2752086010089088</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -3905,7 +3905,7 @@
         <v>271</v>
       </c>
       <c r="B273">
-        <v>0.2787492074290725</v>
+        <v>0.274649351448905</v>
       </c>
     </row>
     <row r="274" spans="1:2">
@@ -3913,7 +3913,7 @@
         <v>272</v>
       </c>
       <c r="B274">
-        <v>0.2778951441177753</v>
+        <v>0.273233059049641</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -3921,7 +3921,7 @@
         <v>273</v>
       </c>
       <c r="B275">
-        <v>0.2777469633389336</v>
+        <v>0.2721330597955325</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -3929,7 +3929,7 @@
         <v>274</v>
       </c>
       <c r="B276">
-        <v>0.2767549054347704</v>
+        <v>0.2700804830184722</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -3937,7 +3937,7 @@
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0.274649351448905</v>
+        <v>0.2690342506258332</v>
       </c>
     </row>
     <row r="278" spans="1:2">
@@ -3945,7 +3945,7 @@
         <v>276</v>
       </c>
       <c r="B278">
-        <v>0.273233059049641</v>
+        <v>0.2649672335470556</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -3953,7 +3953,7 @@
         <v>277</v>
       </c>
       <c r="B279">
-        <v>0.2721330597955325</v>
+        <v>0.2640695527697574</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -3961,7 +3961,7 @@
         <v>278</v>
       </c>
       <c r="B280">
-        <v>0.2703700174372932</v>
+        <v>0.2622444241222095</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3969,7 +3969,7 @@
         <v>279</v>
       </c>
       <c r="B281">
-        <v>0.2622444241222095</v>
+        <v>0.2584180486773697</v>
       </c>
     </row>
     <row r="282" spans="1:2">
@@ -3977,7 +3977,7 @@
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0.2596053026714336</v>
+        <v>0.2582301060044594</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -3985,7 +3985,7 @@
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0.2566810379332543</v>
+        <v>0.2579178693876549</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -3993,7 +3993,7 @@
         <v>282</v>
       </c>
       <c r="B284">
-        <v>0.2566810379332543</v>
+        <v>0.2578000168503738</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -4001,7 +4001,7 @@
         <v>283</v>
       </c>
       <c r="B285">
-        <v>0.2562196830619061</v>
+        <v>0.2569684001567765</v>
       </c>
     </row>
     <row r="286" spans="1:2">
@@ -4009,7 +4009,7 @@
         <v>284</v>
       </c>
       <c r="B286">
-        <v>0.2543549997869661</v>
+        <v>0.2566810379332543</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -4017,7 +4017,7 @@
         <v>285</v>
       </c>
       <c r="B287">
-        <v>0.2504326519543616</v>
+        <v>0.2566810379332543</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -4025,7 +4025,7 @@
         <v>286</v>
       </c>
       <c r="B288">
-        <v>0.2492259886496488</v>
+        <v>0.2562196830619061</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -4033,7 +4033,7 @@
         <v>287</v>
       </c>
       <c r="B289">
-        <v>0.248234122148373</v>
+        <v>0.2551156530902912</v>
       </c>
     </row>
     <row r="290" spans="1:2">
@@ -4041,7 +4041,7 @@
         <v>288</v>
       </c>
       <c r="B290">
-        <v>0.2458573193414282</v>
+        <v>0.2543549997869661</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -4049,7 +4049,7 @@
         <v>289</v>
       </c>
       <c r="B291">
-        <v>0.2427101590530183</v>
+        <v>0.2476948466090976</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -4057,7 +4057,7 @@
         <v>290</v>
       </c>
       <c r="B292">
-        <v>0.2420416602300373</v>
+        <v>0.2458573193414282</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -4065,7 +4065,7 @@
         <v>291</v>
       </c>
       <c r="B293">
-        <v>0.2393031816234401</v>
+        <v>0.245576144571459</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -4073,7 +4073,7 @@
         <v>292</v>
       </c>
       <c r="B294">
-        <v>0.2335819874247174</v>
+        <v>0.2451691198453125</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -4081,7 +4081,7 @@
         <v>293</v>
       </c>
       <c r="B295">
-        <v>0.2330368523850981</v>
+        <v>0.2420320559692912</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -4089,7 +4089,7 @@
         <v>294</v>
       </c>
       <c r="B296">
-        <v>0.2300462971886605</v>
+        <v>0.240369074869617</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -4097,7 +4097,7 @@
         <v>295</v>
       </c>
       <c r="B297">
-        <v>0.2299152694158113</v>
+        <v>0.2391926573810343</v>
       </c>
     </row>
     <row r="298" spans="1:2">
@@ -4105,7 +4105,7 @@
         <v>296</v>
       </c>
       <c r="B298">
-        <v>0.2294393883328929</v>
+        <v>0.2351869911108633</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -4113,7 +4113,7 @@
         <v>297</v>
       </c>
       <c r="B299">
-        <v>0.2290275020235708</v>
+        <v>0.2335819874247174</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -4121,7 +4121,7 @@
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0.227404516677481</v>
+        <v>0.2325082532984397</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -4129,7 +4129,7 @@
         <v>299</v>
       </c>
       <c r="B301">
-        <v>0.2268423901369212</v>
+        <v>0.2313550533895838</v>
       </c>
     </row>
     <row r="302" spans="1:2">
@@ -4137,7 +4137,7 @@
         <v>300</v>
       </c>
       <c r="B302">
-        <v>0.2246027271041413</v>
+        <v>0.2294393883328929</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -4145,7 +4145,7 @@
         <v>301</v>
       </c>
       <c r="B303">
-        <v>0.2239031374181819</v>
+        <v>0.227404516677481</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -4153,7 +4153,7 @@
         <v>302</v>
       </c>
       <c r="B304">
-        <v>0.2229298236795778</v>
+        <v>0.2268423901369212</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -4161,7 +4161,7 @@
         <v>303</v>
       </c>
       <c r="B305">
-        <v>0.2227486724569332</v>
+        <v>0.2232195999814459</v>
       </c>
     </row>
     <row r="306" spans="1:2">
@@ -4169,7 +4169,7 @@
         <v>304</v>
       </c>
       <c r="B306">
-        <v>0.2225922135697465</v>
+        <v>0.2229298236795778</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -4177,7 +4177,7 @@
         <v>305</v>
       </c>
       <c r="B307">
-        <v>0.2222868779752545</v>
+        <v>0.2227486724569332</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -4185,7 +4185,7 @@
         <v>306</v>
       </c>
       <c r="B308">
-        <v>0.2219865737484199</v>
+        <v>0.2225922135697465</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -4193,7 +4193,7 @@
         <v>307</v>
       </c>
       <c r="B309">
-        <v>0.2215780065977668</v>
+        <v>0.2222868779752545</v>
       </c>
     </row>
     <row r="310" spans="1:2">
@@ -4201,7 +4201,7 @@
         <v>308</v>
       </c>
       <c r="B310">
-        <v>0.2193169904237353</v>
+        <v>0.2221200623783217</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -4209,7 +4209,7 @@
         <v>309</v>
       </c>
       <c r="B311">
-        <v>0.209492778013713</v>
+        <v>0.2215780065977668</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -4217,7 +4217,7 @@
         <v>310</v>
       </c>
       <c r="B312">
-        <v>0.2085280514713304</v>
+        <v>0.2086636066596752</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -4225,7 +4225,7 @@
         <v>311</v>
       </c>
       <c r="B313">
-        <v>0.2083361078099997</v>
+        <v>0.2085280514713304</v>
       </c>
     </row>
     <row r="314" spans="1:2">
@@ -4241,7 +4241,7 @@
         <v>313</v>
       </c>
       <c r="B315">
-        <v>0.2068102842935324</v>
+        <v>0.2071621098436887</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -4249,7 +4249,7 @@
         <v>314</v>
       </c>
       <c r="B316">
-        <v>0.2030830523611724</v>
+        <v>0.1996397759792072</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -4265,7 +4265,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>0.1946042966847024</v>
+        <v>0.1968200998435592</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -4273,7 +4273,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>0.1920055258990307</v>
+        <v>0.1948396303734066</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -4281,7 +4281,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>0.190843973706682</v>
+        <v>0.1920055258990307</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -4289,7 +4289,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>0.1884025405652758</v>
+        <v>0.190843973706682</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -4297,7 +4297,7 @@
         <v>320</v>
       </c>
       <c r="B322">
-        <v>0.1873908148740635</v>
+        <v>0.1875976254339369</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -4305,7 +4305,7 @@
         <v>321</v>
       </c>
       <c r="B323">
-        <v>0.1868853747216861</v>
+        <v>0.1873908148740635</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -4313,7 +4313,7 @@
         <v>322</v>
       </c>
       <c r="B324">
-        <v>0.185405335965507</v>
+        <v>0.1843369598971309</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -4321,7 +4321,7 @@
         <v>323</v>
       </c>
       <c r="B325">
-        <v>0.183414283370144</v>
+        <v>0.1824894212283259</v>
       </c>
     </row>
     <row r="326" spans="1:2">
@@ -4329,7 +4329,7 @@
         <v>324</v>
       </c>
       <c r="B326">
-        <v>0.1826121676228729</v>
+        <v>0.1802229589882589</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -4337,7 +4337,7 @@
         <v>325</v>
       </c>
       <c r="B327">
-        <v>0.1824894212283259</v>
+        <v>0.1798930880663481</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -4345,7 +4345,7 @@
         <v>326</v>
       </c>
       <c r="B328">
-        <v>0.1824837425362533</v>
+        <v>0.1783412387549774</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -4353,7 +4353,7 @@
         <v>327</v>
       </c>
       <c r="B329">
-        <v>0.182174522077394</v>
+        <v>0.1779721533412404</v>
       </c>
     </row>
     <row r="330" spans="1:2">
@@ -4361,7 +4361,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>0.1802229589882589</v>
+        <v>0.1777336637903819</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -4369,7 +4369,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>0.1798930880663481</v>
+        <v>0.1772043981533526</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -4377,7 +4377,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>0.1793765796539455</v>
+        <v>0.1767521054080605</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -4385,7 +4385,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>0.1767521054080605</v>
+        <v>0.1763446207346724</v>
       </c>
     </row>
     <row r="334" spans="1:2">
@@ -4393,7 +4393,7 @@
         <v>332</v>
       </c>
       <c r="B334">
-        <v>0.1763446207346724</v>
+        <v>0.1719758177523254</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -4401,7 +4401,7 @@
         <v>333</v>
       </c>
       <c r="B335">
-        <v>0.1751720024867189</v>
+        <v>0.1695830379151599</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -4409,7 +4409,7 @@
         <v>334</v>
       </c>
       <c r="B336">
-        <v>0.1750174064905541</v>
+        <v>0.1676724387232487</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -4417,7 +4417,7 @@
         <v>335</v>
       </c>
       <c r="B337">
-        <v>0.1719758177523254</v>
+        <v>0.1675828550601943</v>
       </c>
     </row>
     <row r="338" spans="1:2">
@@ -4425,7 +4425,7 @@
         <v>336</v>
       </c>
       <c r="B338">
-        <v>0.1712223381237015</v>
+        <v>0.1670758369838687</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -4433,7 +4433,7 @@
         <v>337</v>
       </c>
       <c r="B339">
-        <v>0.1701044384605224</v>
+        <v>0.1661804188040503</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -4441,7 +4441,7 @@
         <v>338</v>
       </c>
       <c r="B340">
-        <v>0.1687713398221498</v>
+        <v>0.1645488829049671</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -4449,7 +4449,7 @@
         <v>339</v>
       </c>
       <c r="B341">
-        <v>0.1679331544587825</v>
+        <v>0.1607815584443593</v>
       </c>
     </row>
     <row r="342" spans="1:2">
@@ -4457,7 +4457,7 @@
         <v>340</v>
       </c>
       <c r="B342">
-        <v>0.1675828550601943</v>
+        <v>0.1607815584443593</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -4465,7 +4465,7 @@
         <v>341</v>
       </c>
       <c r="B343">
-        <v>0.1640436666672982</v>
+        <v>0.1589409808931812</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -4473,7 +4473,7 @@
         <v>342</v>
       </c>
       <c r="B344">
-        <v>0.1624866513260825</v>
+        <v>0.1578724711620705</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -4481,7 +4481,7 @@
         <v>343</v>
       </c>
       <c r="B345">
-        <v>0.1607815584443593</v>
+        <v>0.1573706542504556</v>
       </c>
     </row>
     <row r="346" spans="1:2">
@@ -4489,7 +4489,7 @@
         <v>344</v>
       </c>
       <c r="B346">
-        <v>0.1607815584443593</v>
+        <v>0.1564711091826019</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -4497,7 +4497,7 @@
         <v>345</v>
       </c>
       <c r="B347">
-        <v>0.1598617926275694</v>
+        <v>0.1562216426912957</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -4505,7 +4505,7 @@
         <v>346</v>
       </c>
       <c r="B348">
-        <v>0.1590610498948373</v>
+        <v>0.155188984145638</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -4513,7 +4513,7 @@
         <v>347</v>
       </c>
       <c r="B349">
-        <v>0.158964397986108</v>
+        <v>0.1533063588339827</v>
       </c>
     </row>
     <row r="350" spans="1:2">
@@ -4521,7 +4521,7 @@
         <v>348</v>
       </c>
       <c r="B350">
-        <v>0.1589409808931812</v>
+        <v>0.1529903793899068</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -4529,7 +4529,7 @@
         <v>349</v>
       </c>
       <c r="B351">
-        <v>0.1588207571442934</v>
+        <v>0.1523498551913238</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -4537,7 +4537,7 @@
         <v>350</v>
       </c>
       <c r="B352">
-        <v>0.1577930210525844</v>
+        <v>0.1522259414134342</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -4545,7 +4545,7 @@
         <v>351</v>
       </c>
       <c r="B353">
-        <v>0.1566584035382046</v>
+        <v>0.1521621978713201</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -4553,7 +4553,7 @@
         <v>352</v>
       </c>
       <c r="B354">
-        <v>0.1564942203551776</v>
+        <v>0.1520950153545786</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -4561,7 +4561,7 @@
         <v>353</v>
       </c>
       <c r="B355">
-        <v>0.156021266627496</v>
+        <v>0.1520807569632565</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -4569,7 +4569,7 @@
         <v>354</v>
       </c>
       <c r="B356">
-        <v>0.1559197592037933</v>
+        <v>0.151397851513777</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -4577,7 +4577,7 @@
         <v>355</v>
       </c>
       <c r="B357">
-        <v>0.155188984145638</v>
+        <v>0.1508117626692667</v>
       </c>
     </row>
     <row r="358" spans="1:2">
@@ -4585,7 +4585,7 @@
         <v>356</v>
       </c>
       <c r="B358">
-        <v>0.1533313888215038</v>
+        <v>0.1501132758704666</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -4593,7 +4593,7 @@
         <v>357</v>
       </c>
       <c r="B359">
-        <v>0.1523498551913238</v>
+        <v>0.1498974793047367</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -4601,7 +4601,7 @@
         <v>358</v>
       </c>
       <c r="B360">
-        <v>0.1522259414134342</v>
+        <v>0.1497830998966689</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -4609,7 +4609,7 @@
         <v>359</v>
       </c>
       <c r="B361">
-        <v>0.1521621978713201</v>
+        <v>0.1483462598718877</v>
       </c>
     </row>
     <row r="362" spans="1:2">
@@ -4617,7 +4617,7 @@
         <v>360</v>
       </c>
       <c r="B362">
-        <v>0.1508117626692667</v>
+        <v>0.1483456338357487</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -4625,7 +4625,7 @@
         <v>361</v>
       </c>
       <c r="B363">
-        <v>0.1501132758704666</v>
+        <v>0.1462165201951795</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -4633,7 +4633,7 @@
         <v>362</v>
       </c>
       <c r="B364">
-        <v>0.1462165201951795</v>
+        <v>0.1451746704520367</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -4641,7 +4641,7 @@
         <v>363</v>
       </c>
       <c r="B365">
-        <v>0.1444304018155624</v>
+        <v>0.1449255834959557</v>
       </c>
     </row>
     <row r="366" spans="1:2">
@@ -4649,7 +4649,7 @@
         <v>364</v>
       </c>
       <c r="B366">
-        <v>0.1442219922762547</v>
+        <v>0.1444304018155624</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -4657,7 +4657,7 @@
         <v>365</v>
       </c>
       <c r="B367">
-        <v>0.1442045332597222</v>
+        <v>0.1443571584123475</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -4665,7 +4665,7 @@
         <v>366</v>
       </c>
       <c r="B368">
-        <v>0.1421514625834288</v>
+        <v>0.1432709763363103</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -4673,7 +4673,7 @@
         <v>367</v>
       </c>
       <c r="B369">
-        <v>0.1418952086650747</v>
+        <v>0.1421514625834288</v>
       </c>
     </row>
     <row r="370" spans="1:2">
@@ -4681,7 +4681,7 @@
         <v>368</v>
       </c>
       <c r="B370">
-        <v>0.1413932666706332</v>
+        <v>0.1418952086650747</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -4689,7 +4689,7 @@
         <v>369</v>
       </c>
       <c r="B371">
-        <v>0.1409724358780728</v>
+        <v>0.1412915893458515</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -4721,7 +4721,7 @@
         <v>373</v>
       </c>
       <c r="B375">
-        <v>0.1369194658822337</v>
+        <v>0.1369188305843105</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -4729,7 +4729,7 @@
         <v>374</v>
       </c>
       <c r="B376">
-        <v>0.1366831238135102</v>
+        <v>0.133907115594738</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -4737,7 +4737,7 @@
         <v>375</v>
       </c>
       <c r="B377">
-        <v>0.1365526182402406</v>
+        <v>0.1314135744251834</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -4745,7 +4745,7 @@
         <v>376</v>
       </c>
       <c r="B378">
-        <v>0.1302317499218761</v>
+        <v>0.1311321244946977</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -4753,7 +4753,7 @@
         <v>377</v>
       </c>
       <c r="B379">
-        <v>0.1261253116213801</v>
+        <v>0.1302317499218761</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -4769,7 +4769,7 @@
         <v>379</v>
       </c>
       <c r="B381">
-        <v>0.1247964089096116</v>
+        <v>0.1240538955854742</v>
       </c>
     </row>
     <row r="382" spans="1:2">
@@ -4793,7 +4793,7 @@
         <v>382</v>
       </c>
       <c r="B384">
-        <v>0.1228215539902036</v>
+        <v>0.1192227412572715</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -4801,7 +4801,7 @@
         <v>383</v>
       </c>
       <c r="B385">
-        <v>0.1223444938760725</v>
+        <v>0.1187904399399076</v>
       </c>
     </row>
     <row r="386" spans="1:2">
@@ -4809,7 +4809,7 @@
         <v>384</v>
       </c>
       <c r="B386">
-        <v>0.1216495463142642</v>
+        <v>0.1186127997814495</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -4817,7 +4817,7 @@
         <v>385</v>
       </c>
       <c r="B387">
-        <v>0.1187904399399076</v>
+        <v>0.11742276128478</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -4825,7 +4825,7 @@
         <v>386</v>
       </c>
       <c r="B388">
-        <v>0.1176627300093172</v>
+        <v>0.115684011860542</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -4833,7 +4833,7 @@
         <v>387</v>
       </c>
       <c r="B389">
-        <v>0.11742276128478</v>
+        <v>0.1112100147718926</v>
       </c>
     </row>
     <row r="390" spans="1:2">
@@ -4841,7 +4841,7 @@
         <v>388</v>
       </c>
       <c r="B390">
-        <v>0.1135427024482527</v>
+        <v>0.1105384352031529</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -4849,7 +4849,7 @@
         <v>389</v>
       </c>
       <c r="B391">
-        <v>0.113481252606501</v>
+        <v>0.1101242890664882</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -4857,7 +4857,7 @@
         <v>390</v>
       </c>
       <c r="B392">
-        <v>0.1097321758966605</v>
+        <v>0.1099671934182016</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -4865,7 +4865,7 @@
         <v>391</v>
       </c>
       <c r="B393">
-        <v>0.1096494552583211</v>
+        <v>0.1083791381813917</v>
       </c>
     </row>
     <row r="394" spans="1:2">
@@ -4873,7 +4873,7 @@
         <v>392</v>
       </c>
       <c r="B394">
-        <v>0.1096119724310149</v>
+        <v>0.1062419622894912</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -4881,7 +4881,7 @@
         <v>393</v>
       </c>
       <c r="B395">
-        <v>0.1092767628386406</v>
+        <v>0.1055318503371161</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -4889,7 +4889,7 @@
         <v>394</v>
       </c>
       <c r="B396">
-        <v>0.1055318503371161</v>
+        <v>0.105074938402703</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -4897,7 +4897,7 @@
         <v>395</v>
       </c>
       <c r="B397">
-        <v>0.105074938402703</v>
+        <v>0.1043842831485906</v>
       </c>
     </row>
     <row r="398" spans="1:2">
@@ -4905,7 +4905,7 @@
         <v>396</v>
       </c>
       <c r="B398">
-        <v>0.1049993279904358</v>
+        <v>0.1026942436390308</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -4913,7 +4913,7 @@
         <v>397</v>
       </c>
       <c r="B399">
-        <v>0.1042185261310729</v>
+        <v>0.1019890203353324</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -4921,7 +4921,7 @@
         <v>398</v>
       </c>
       <c r="B400">
-        <v>0.1035577954703717</v>
+        <v>0.1002790756356966</v>
       </c>
     </row>
     <row r="401" spans="1:2">
@@ -4929,7 +4929,7 @@
         <v>399</v>
       </c>
       <c r="B401">
-        <v>0.1019890203353324</v>
+        <v>0.09955313024150669</v>
       </c>
     </row>
     <row r="402" spans="1:2">
@@ -4937,7 +4937,7 @@
         <v>400</v>
       </c>
       <c r="B402">
-        <v>0.1010221503002708</v>
+        <v>0.09946682053981237</v>
       </c>
     </row>
     <row r="403" spans="1:2">
@@ -4945,7 +4945,7 @@
         <v>401</v>
       </c>
       <c r="B403">
-        <v>0.1005210960895515</v>
+        <v>0.09877790145948007</v>
       </c>
     </row>
     <row r="404" spans="1:2">
@@ -4953,7 +4953,7 @@
         <v>402</v>
       </c>
       <c r="B404">
-        <v>0.09877790145948007</v>
+        <v>0.09670943761155559</v>
       </c>
     </row>
     <row r="405" spans="1:2">
@@ -4961,7 +4961,7 @@
         <v>403</v>
       </c>
       <c r="B405">
-        <v>0.09670943761155559</v>
+        <v>0.09113987920005062</v>
       </c>
     </row>
     <row r="406" spans="1:2">
@@ -4969,7 +4969,7 @@
         <v>404</v>
       </c>
       <c r="B406">
-        <v>0.09223275862309688</v>
+        <v>0.08996690478047009</v>
       </c>
     </row>
     <row r="407" spans="1:2">
@@ -4977,7 +4977,7 @@
         <v>405</v>
       </c>
       <c r="B407">
-        <v>0.08996690478047009</v>
+        <v>0.08976088070566735</v>
       </c>
     </row>
     <row r="408" spans="1:2">
@@ -4985,7 +4985,7 @@
         <v>406</v>
       </c>
       <c r="B408">
-        <v>0.08976088070566735</v>
+        <v>0.0837678708665035</v>
       </c>
     </row>
     <row r="409" spans="1:2">
@@ -4993,7 +4993,7 @@
         <v>407</v>
       </c>
       <c r="B409">
-        <v>0.08427357849890793</v>
+        <v>0.08232715623799591</v>
       </c>
     </row>
     <row r="410" spans="1:2">
@@ -5001,7 +5001,7 @@
         <v>408</v>
       </c>
       <c r="B410">
-        <v>0.08257230745092947</v>
+        <v>0.08097541140401554</v>
       </c>
     </row>
     <row r="411" spans="1:2">
@@ -5009,7 +5009,7 @@
         <v>409</v>
       </c>
       <c r="B411">
-        <v>0.08043613586474008</v>
+        <v>0.07598659461244561</v>
       </c>
     </row>
     <row r="412" spans="1:2">
@@ -5017,7 +5017,7 @@
         <v>410</v>
       </c>
       <c r="B412">
-        <v>0.07795454542344427</v>
+        <v>0.07587704374490722</v>
       </c>
     </row>
     <row r="413" spans="1:2">
@@ -5033,7 +5033,7 @@
         <v>412</v>
       </c>
       <c r="B414">
-        <v>0.07111942095819024</v>
+        <v>0.07473781612936725</v>
       </c>
     </row>
     <row r="415" spans="1:2">
@@ -5041,7 +5041,7 @@
         <v>413</v>
       </c>
       <c r="B415">
-        <v>0.06989023461694077</v>
+        <v>0.0711255350561788</v>
       </c>
     </row>
     <row r="416" spans="1:2">
@@ -5049,7 +5049,7 @@
         <v>414</v>
       </c>
       <c r="B416">
-        <v>0.06763528550314923</v>
+        <v>0.07111942095819024</v>
       </c>
     </row>
     <row r="417" spans="1:2">
@@ -5057,7 +5057,7 @@
         <v>415</v>
       </c>
       <c r="B417">
-        <v>0.06724176450574149</v>
+        <v>0.06989023461694077</v>
       </c>
     </row>
     <row r="418" spans="1:2">
@@ -5065,7 +5065,7 @@
         <v>416</v>
       </c>
       <c r="B418">
-        <v>0.06160405991567997</v>
+        <v>0.06882250535552736</v>
       </c>
     </row>
     <row r="419" spans="1:2">
@@ -5073,7 +5073,7 @@
         <v>417</v>
       </c>
       <c r="B419">
-        <v>0.06060932238744221</v>
+        <v>0.06234343321479563</v>
       </c>
     </row>
     <row r="420" spans="1:2">
@@ -5081,7 +5081,7 @@
         <v>418</v>
       </c>
       <c r="B420">
-        <v>0.05989957392128376</v>
+        <v>0.06160405991567997</v>
       </c>
     </row>
     <row r="421" spans="1:2">
@@ -5089,7 +5089,7 @@
         <v>419</v>
       </c>
       <c r="B421">
-        <v>0.05935814180884247</v>
+        <v>0.06060932238744221</v>
       </c>
     </row>
     <row r="422" spans="1:2">
@@ -5097,7 +5097,7 @@
         <v>420</v>
       </c>
       <c r="B422">
-        <v>0.05627471515915938</v>
+        <v>0.05989957392128376</v>
       </c>
     </row>
     <row r="423" spans="1:2">
@@ -5105,7 +5105,7 @@
         <v>421</v>
       </c>
       <c r="B423">
-        <v>0.05585118297833369</v>
+        <v>0.05925008789942643</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -5113,7 +5113,7 @@
         <v>422</v>
       </c>
       <c r="B424">
-        <v>0.05559597543064632</v>
+        <v>0.05916441804886263</v>
       </c>
     </row>
     <row r="425" spans="1:2">
@@ -5121,7 +5121,7 @@
         <v>423</v>
       </c>
       <c r="B425">
-        <v>0.05470920453964712</v>
+        <v>0.05721128405350662</v>
       </c>
     </row>
     <row r="426" spans="1:2">
@@ -5129,7 +5129,7 @@
         <v>424</v>
       </c>
       <c r="B426">
-        <v>0.05328680824882159</v>
+        <v>0.05422272465469091</v>
       </c>
     </row>
     <row r="427" spans="1:2">
@@ -5137,7 +5137,7 @@
         <v>425</v>
       </c>
       <c r="B427">
-        <v>0.05298871151903484</v>
+        <v>0.05331447850736937</v>
       </c>
     </row>
     <row r="428" spans="1:2">
@@ -5145,7 +5145,7 @@
         <v>426</v>
       </c>
       <c r="B428">
-        <v>0.05164917187374707</v>
+        <v>0.05328680824882159</v>
       </c>
     </row>
     <row r="429" spans="1:2">
@@ -5153,7 +5153,7 @@
         <v>427</v>
       </c>
       <c r="B429">
-        <v>0.051428937245519</v>
+        <v>0.05298871151903484</v>
       </c>
     </row>
     <row r="430" spans="1:2">
@@ -5161,7 +5161,7 @@
         <v>428</v>
       </c>
       <c r="B430">
-        <v>0.04912346731184369</v>
+        <v>0.05207117250313886</v>
       </c>
     </row>
     <row r="431" spans="1:2">
@@ -5169,7 +5169,7 @@
         <v>429</v>
       </c>
       <c r="B431">
-        <v>0.04848648475201256</v>
+        <v>0.05164917187374707</v>
       </c>
     </row>
     <row r="432" spans="1:2">
@@ -5177,7 +5177,7 @@
         <v>430</v>
       </c>
       <c r="B432">
-        <v>0.04722751405452441</v>
+        <v>0.0514445712792424</v>
       </c>
     </row>
     <row r="433" spans="1:2">
@@ -5185,7 +5185,7 @@
         <v>431</v>
       </c>
       <c r="B433">
-        <v>0.04578116621313222</v>
+        <v>0.04722751405452441</v>
       </c>
     </row>
     <row r="434" spans="1:2">
@@ -5193,7 +5193,7 @@
         <v>432</v>
       </c>
       <c r="B434">
-        <v>0.04573400405736905</v>
+        <v>0.04537526997496388</v>
       </c>
     </row>
     <row r="435" spans="1:2">
@@ -5225,7 +5225,7 @@
         <v>436</v>
       </c>
       <c r="B438">
-        <v>0.04083241126437764</v>
+        <v>0.04036501094780687</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -5233,7 +5233,7 @@
         <v>437</v>
       </c>
       <c r="B439">
-        <v>0.03929761069217652</v>
+        <v>0.03713267135873455</v>
       </c>
     </row>
     <row r="440" spans="1:2">
@@ -5241,7 +5241,7 @@
         <v>438</v>
       </c>
       <c r="B440">
-        <v>0.03713267135873455</v>
+        <v>0.03679193607005637</v>
       </c>
     </row>
     <row r="441" spans="1:2">
@@ -5249,7 +5249,7 @@
         <v>439</v>
       </c>
       <c r="B441">
-        <v>0.03016278649218851</v>
+        <v>0.02816127423426606</v>
       </c>
     </row>
     <row r="442" spans="1:2">
@@ -5257,7 +5257,7 @@
         <v>440</v>
       </c>
       <c r="B442">
-        <v>0.02816127423426606</v>
+        <v>0.02707610848489428</v>
       </c>
     </row>
     <row r="443" spans="1:2">
@@ -5265,7 +5265,7 @@
         <v>441</v>
       </c>
       <c r="B443">
-        <v>0.02707610848489428</v>
+        <v>0.02526442129375206</v>
       </c>
     </row>
     <row r="444" spans="1:2">
@@ -5281,7 +5281,7 @@
         <v>443</v>
       </c>
       <c r="B445">
-        <v>0.01965076838858471</v>
+        <v>0.02295379281561916</v>
       </c>
     </row>
     <row r="446" spans="1:2">
@@ -5289,7 +5289,7 @@
         <v>444</v>
       </c>
       <c r="B446">
-        <v>0.0177589984473745</v>
+        <v>0.01965076838858471</v>
       </c>
     </row>
     <row r="447" spans="1:2">
@@ -5297,7 +5297,7 @@
         <v>445</v>
       </c>
       <c r="B447">
-        <v>0.0157129316477953</v>
+        <v>0.01706487491150366</v>
       </c>
     </row>
     <row r="448" spans="1:2">
@@ -5305,7 +5305,7 @@
         <v>446</v>
       </c>
       <c r="B448">
-        <v>0.01110812320675625</v>
+        <v>0.01636227665578671</v>
       </c>
     </row>
     <row r="449" spans="1:2">
@@ -5313,7 +5313,7 @@
         <v>447</v>
       </c>
       <c r="B449">
-        <v>0.005396442431838899</v>
+        <v>0.006730251520199459</v>
       </c>
     </row>
     <row r="450" spans="1:2">
@@ -5321,7 +5321,7 @@
         <v>448</v>
       </c>
       <c r="B450">
-        <v>0.003517565616198315</v>
+        <v>0.006142299688896458</v>
       </c>
     </row>
     <row r="451" spans="1:2">
@@ -5329,7 +5329,7 @@
         <v>449</v>
       </c>
       <c r="B451">
-        <v>0.001254112070693258</v>
+        <v>0.005047849197763687</v>
       </c>
     </row>
   </sheetData>
